--- a/code/out2.xlsx
+++ b/code/out2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="8.01.009" sheetId="1" r:id="rId1"/>
     <sheet name="8.01.010" sheetId="2" r:id="rId2"/>
     <sheet name="8.01.031" sheetId="3" r:id="rId3"/>
     <sheet name="8.04.000" sheetId="4" r:id="rId4"/>
